--- a/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Fernando.xlsx
+++ b/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Fernando.xlsx
@@ -1496,24 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,6 +1537,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2276,9 +2276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2362,10 +2362,10 @@
       <c r="I2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="26">
         <v>2</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -2402,45 +2402,45 @@
       <c r="I3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="42" customFormat="1" ht="90">
-      <c r="A4" s="38">
+    <row r="4" spans="1:12" s="36" customFormat="1" ht="90">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="str">
+      <c r="E4" s="32" t="str">
         <f>VLOOKUP(D4,Tasks!$A$1:$C$46,2,0)</f>
         <v>Steel support development</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="33" t="str">
         <f>VLOOKUP(D4,Tasks!$A$1:$C$46,3,0)</f>
         <v>A steel suspension tower secured to the ground holds the roller coaster together and supports the highly dynamic loads. Appropriate manufacturing specifications are derived from mathematical computations. The roller coaster is to provide a thrilling and extreme experience, but will also conform to safety regulations. Safety is very important in the construction of amusement park equipment and accordingly the involvement of the Safety Standards Authority is required from the outset.</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="32">
         <v>1</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="150">
       <c r="A5" s="2">
@@ -2472,10 +2472,10 @@
       <c r="I5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="22" t="s">
         <v>234</v>
       </c>
@@ -2510,13 +2510,13 @@
       <c r="I6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="26">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="22" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2550,145 +2550,145 @@
       <c r="I7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="26">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="42" customFormat="1" ht="90">
-      <c r="A8" s="38">
+    <row r="8" spans="1:12" s="36" customFormat="1" ht="90">
+      <c r="A8" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32">
         <v>7</v>
       </c>
-      <c r="E8" s="38" t="str">
+      <c r="E8" s="32" t="str">
         <f>VLOOKUP(D8,Tasks!$A$1:$C$46,2,0)</f>
         <v>Building site prepration</v>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="33" t="str">
         <f>VLOOKUP(D8,Tasks!$A$1:$C$46,3,0)</f>
         <v>Subcontracting to Grader Ltd. which performed satisfactorily on the last project. The work is unproblematic and to date no problems have been experienced.</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>0</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" ht="105">
-      <c r="A9" s="38">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" s="36" customFormat="1" ht="105">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32">
         <v>8</v>
       </c>
-      <c r="E9" s="38" t="str">
+      <c r="E9" s="32" t="str">
         <f>VLOOKUP(D9,Tasks!$A$1:$C$46,2,0)</f>
         <v>Accelerator development</v>
       </c>
-      <c r="F9" s="39" t="str">
+      <c r="F9" s="33" t="str">
         <f>VLOOKUP(D9,Tasks!$A$1:$C$46,3,0)</f>
         <v>The engineering company G-force Ltd. will develop the accelerator. The G-force accelerator is an upgrade from the proven Launch-Coasters technology. The G-force accelerator will provide the roller coaster cars with an acceleration of 0 to 100km/h in 4.2 seconds.</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
         <v>0</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="42" customFormat="1" ht="90">
-      <c r="A10" s="38">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="36" customFormat="1" ht="90">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32">
         <v>9</v>
       </c>
-      <c r="E10" s="38" t="str">
+      <c r="E10" s="32" t="str">
         <f>VLOOKUP(D10,Tasks!$A$1:$C$46,2,0)</f>
         <v>Software Specification</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="33" t="str">
         <f>VLOOKUP(D10,Tasks!$A$1:$C$46,3,0)</f>
         <v>The IT department can utilize previous experience and software modules from earlier models. Excellent documentation and error-free timely work is expected.</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <v>0</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" s="42" customFormat="1" ht="135">
-      <c r="A11" s="38">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" s="36" customFormat="1" ht="135">
+      <c r="A11" s="32">
         <v>2</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
         <v>10</v>
       </c>
-      <c r="E11" s="38" t="str">
+      <c r="E11" s="32" t="str">
         <f>VLOOKUP(D11,Tasks!$A$1:$C$46,2,0)</f>
         <v>Sound system development</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="33" t="str">
         <f>VLOOKUP(D11,Tasks!$A$1:$C$46,3,0)</f>
         <v>A novel and unique feature of the RocketStar is its Dolby-40-Crazy-Sound equipment provided by Hyperwave. Each car will have 22 4D loudspeakers with a frequency range of 20 to 20.000 Hz. Along the tracks the steel supports will hold 200 loudspeakers. By synchronizing all of the stationary and onboard loudspeakers passengers will have a 4 dimensional sound experience.</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <v>0</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="35">
         <v>2</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="33" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2722,76 +2722,76 @@
       <c r="I12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="26">
         <v>0</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="42" customFormat="1" ht="78" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
+    <row r="13" spans="1:12" s="36" customFormat="1" ht="78" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32">
         <v>12</v>
       </c>
-      <c r="E13" s="38" t="str">
+      <c r="E13" s="32" t="str">
         <f>VLOOKUP(D13,Tasks!$A$1:$C$46,2,0)</f>
         <v>Track manufacture</v>
       </c>
-      <c r="F13" s="39" t="str">
+      <c r="F13" s="33" t="str">
         <f>VLOOKUP(D13,Tasks!$A$1:$C$46,3,0)</f>
         <v>Existing manufacturing plants must be adjusted to accommodate the new track design. This is accomplished through internal departments.</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" ht="120">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" s="36" customFormat="1" ht="120">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32">
         <v>13</v>
       </c>
-      <c r="E14" s="38" t="str">
+      <c r="E14" s="32" t="str">
         <f>VLOOKUP(D14,Tasks!$A$1:$C$46,2,0)</f>
         <v>Car manufacture</v>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="33" t="str">
         <f>VLOOKUP(D14,Tasks!$A$1:$C$46,3,0)</f>
         <v>The assembly line for the roller coaster cars must be expanded as the cars are longer and wider than previous models. Internal departments have this responsibility.
 One potential problem is the availability of workers.</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <v>0</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="105">
       <c r="A15" s="2">
@@ -2823,13 +2823,13 @@
       <c r="I15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="24" t="s">
         <v>220</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="120">
+    <row r="16" spans="1:12" ht="105">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -2859,17 +2859,17 @@
       <c r="I16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="26">
         <v>1</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="22" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="75">
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="I17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="24" t="s">
         <v>222</v>
       </c>
       <c r="K17" s="5"/>
@@ -2935,10 +2935,10 @@
       <c r="I18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="26">
         <v>1</v>
       </c>
       <c r="L18" s="22" t="s">
@@ -2975,7 +2975,7 @@
       <c r="I19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="24" t="s">
         <v>224</v>
       </c>
       <c r="K19" s="5"/>
@@ -3011,7 +3011,7 @@
       <c r="I20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="24" t="s">
         <v>225</v>
       </c>
       <c r="K20" s="5"/>
@@ -3047,10 +3047,10 @@
       <c r="I21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="26">
         <v>2</v>
       </c>
       <c r="L21" s="22" t="s">
@@ -3087,7 +3087,7 @@
       <c r="I22" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="24" t="s">
         <v>226</v>
       </c>
       <c r="K22" s="5"/>
@@ -3123,33 +3123,33 @@
       <c r="I23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="24" t="s">
         <v>227</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" s="37" customFormat="1" ht="45">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33">
+    <row r="24" spans="1:12" s="31" customFormat="1" ht="30">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27">
         <v>23</v>
       </c>
-      <c r="E24" s="33" t="str">
+      <c r="E24" s="27" t="str">
         <f>VLOOKUP(D24,Tasks!$A$1:$C$46,2,0)</f>
         <v>Building/Station production</v>
       </c>
-      <c r="F24" s="34" t="str">
+      <c r="F24" s="28" t="str">
         <f>VLOOKUP(D24,Tasks!$A$1:$C$46,3,0)</f>
         <v>A loading station for the passengers and a building for the power supply must be built. The purchaser favors a local construction company called Woodbuilder Ltd.</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" ht="75">
       <c r="A25" s="2">
@@ -3181,7 +3181,7 @@
       <c r="I25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="24" t="s">
         <v>228</v>
       </c>
       <c r="K25" s="5"/>
@@ -3217,33 +3217,33 @@
       <c r="I26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="24" t="s">
         <v>229</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" s="37" customFormat="1" ht="45">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
+    <row r="27" spans="1:12" s="31" customFormat="1" ht="45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27">
         <v>26</v>
       </c>
-      <c r="E27" s="33" t="str">
+      <c r="E27" s="27" t="str">
         <f>VLOOKUP(D27,Tasks!$A$1:$C$46,2,0)</f>
         <v>Track assembly</v>
       </c>
-      <c r="F27" s="34" t="str">
+      <c r="F27" s="28" t="str">
         <f>VLOOKUP(D27,Tasks!$A$1:$C$46,3,0)</f>
         <v>The assembly of track modules is a task for experienced specialists. The specialists are assigned to this on a long-term basis and the project team has the full support of management.</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="105">
       <c r="A28" s="2">
@@ -3275,7 +3275,7 @@
       <c r="I28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
@@ -3309,7 +3309,7 @@
       <c r="I29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
@@ -3343,7 +3343,7 @@
       <c r="I30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="30"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
@@ -3377,11 +3377,11 @@
       <c r="I31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="30"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="60">
+    <row r="32" spans="1:12" ht="45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3399,11 +3399,11 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="30"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="60">
+    <row r="33" spans="1:12" ht="45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3421,11 +3421,11 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="60">
+    <row r="34" spans="1:12" ht="30">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3443,11 +3443,11 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="90">
+    <row r="35" spans="1:12" ht="60">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3465,11 +3465,11 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="60">
+    <row r="36" spans="1:12" ht="45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3487,11 +3487,11 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="60">
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3509,11 +3509,11 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="60">
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3531,11 +3531,11 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="30"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="45">
+    <row r="39" spans="1:12" ht="30">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3553,7 +3553,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
@@ -3575,11 +3575,11 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="45">
+    <row r="41" spans="1:12" ht="30">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3597,11 +3597,11 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="90">
+    <row r="42" spans="1:12" ht="60">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3619,11 +3619,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="60">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3641,11 +3641,11 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="60">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3663,11 +3663,11 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="30"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="90">
+    <row r="45" spans="1:12" ht="60">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3685,11 +3685,11 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="31"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="60">
+    <row r="46" spans="1:12" ht="45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3707,11 +3707,11 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="31"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="60">
+    <row r="47" spans="1:12" ht="45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3729,7 +3729,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="31"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
@@ -4289,11 +4289,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="13" t="s">
@@ -4307,7 +4307,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="43" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -4318,7 +4318,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="20" t="s">
         <v>149</v>
       </c>
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="20" t="s">
         <v>150</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="38" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
@@ -4392,7 +4392,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>1</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="20" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="38" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -4477,7 +4477,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="38" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -4506,7 +4506,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>23</v>
       </c>
@@ -4515,7 +4515,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>21</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -4535,7 +4535,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
         <v>14</v>
       </c>
@@ -4544,7 +4544,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +4553,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>8</v>
       </c>
@@ -4562,7 +4562,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="38" t="s">
         <v>160</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -4573,7 +4573,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="20" t="s">
         <v>4</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>145</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="20" t="s">
         <v>146</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>147</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -4620,7 +4620,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>31</v>
       </c>
@@ -4629,7 +4629,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>28</v>
       </c>
@@ -4638,7 +4638,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>26</v>
       </c>
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="20" t="s">
         <v>22</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="38" t="s">
         <v>162</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="20" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +4685,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>13</v>
       </c>
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="25"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="21" t="s">
         <v>10</v>
       </c>

--- a/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Fernando.xlsx
+++ b/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Fernando.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="259">
   <si>
     <t>6.6 Controlar o cronograma</t>
   </si>
@@ -892,10 +892,6 @@
   <si>
     <t>A equipe não executou adequadamente o processo "6.6 Controlar o Cronograma", que tem como uma de suas saídas a "Atualização dos documentos do projeto". Deste modo, com o cronograma desatualizado em função da redução da duração dos pacotes de trabalho 1 e 3, o pacote de trabalho 13 foi iniciado antes que pudessem ser avaliadas as alternativas de otimização.
 A equipe teria utilizado  a folga neste caminho, optando pela alternativa 3, que apresenta ganhos de tecnologia e qualidade mediante aumento de custo pouco significativo.  As alternativas 1 e 2 visam redução de duração, desnecessária para este pacote de trabalho, mediante custo adicional e redução de tecnologia e qualidade e portanto seriam descartadas.</t>
-  </si>
-  <si>
-    <t>Ao contrário da maioria das decisões anteriores envolvendo pacotes fora do caminho crítico, a equipe descartou a alternativa 3 pois reduziria muito pouco o custo deste pacote e consumiria 3 das 4 semanas de folga desta pacote.
-A equipe optou pela alternativa 1, que apresenta um aumento de custo moderado e redução significativa na duração do pacote. Embora esta redução de duração na impacte o término do projeto e não traga benefícios financeiros imediatos, o aumento da folga foi considerado importante analisando também os pacotes de trabalho sucessores.</t>
   </si>
   <si>
     <t>A equipe optou pela alternativa 3, que oferece uma solução com custo menor e com mais qualidade, com duração adicional de 2 semanas que não impactará na data de término do projeto devido à grande folga deste caminho.</t>
@@ -1088,6 +1084,40 @@
 9.3 Desenvolver a equipe do projeto;
 9.4 Gerenciar a equipe do projeto;
 11.6 Monitorar e controlar os riscos</t>
+  </si>
+  <si>
+    <t>Ao contrário da maioria das decisões anteriores envolvendo pacotes fora do caminho crítico, a equipe descartou a alternativa 3 pois reduziria muito pouco o custo deste pacote e consumiria 3 das 4 semanas de folga.
+A equipe optou pela alternativa 1, que apresenta um aumento de custo moderado e redução significativa na duração do pacote. Embora esta redução de duração na impacte o término do projeto e não traga benefícios financeiros imediatos, o aumento da folga foi considerado importante analisando também os pacotes de trabalho sucessores.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Apesar da alternativa 3 apresentar ganhos de qualidade, e haver folga suficiente no caminho, a equipe preferiu não correr o risco de deixar a atividade sob responsabilidade de uma única pessoa.
+A escolha então foi da alternativa original que além de não aumentar custo, ainda deixará uma folga no caminho, e apesar de não trazer ganhos de qualidade e tecnologia, também não trás perda.</t>
+  </si>
+  <si>
+    <t>A equipe escolheu pelo ganho de qualidade da alternativa 3, pois além de não haver aumento de custo, o aumento do prazo é de apenas uma semana e o caminho possui folga suficiente.</t>
+  </si>
+  <si>
+    <t>A escolha da equipe foi pela alternativa 3 que com um pequeno aumento de custo traz ganhos de qualidade e tecnologia. E apesar do aumento do prazo, existe folga suficiente no caminho.</t>
+  </si>
+  <si>
+    <t>A equipe optou pela alternativa original preferindo assim não correr o risco de utilizar quase toda a folga do caminho apresentada pela alternativa 3, que possuia pouco aumento de custo e ponto de qualidade porém três semanas de acrescimo. O índice de qualidade do projeto já apresenta um nível bastante satisfatório.</t>
+  </si>
+  <si>
+    <t>Embora a altarnativa 3 apresentasse ganho de qualidade com um pequeno aumento de custo e folga suportada pelo caminho, a equipe entendeu que já existe um contrato com a empresa Electricity e decidiu optar pela alternativa original, deixando assim de correr os riscos que uma possível rescisão de contrato traria. Além disso o caminho permaneceu com uma folga mais confortável caso ocorra algúm distúrbio.</t>
+  </si>
+  <si>
+    <t>A equipe preferiu continuar na alternativa original pois indentificou como risco a diminuição de pessoas alocadas nessa atividade, mesmo com o ganho de qualidade. Além do que, a alternativa que dava ponto de qualidade também aumentava o prazo em 2 semanas.</t>
+  </si>
+  <si>
+    <t>ok
+mudados de 3 para 0 pq encontramos disturbio</t>
+  </si>
+  <si>
+    <t>A escolha da equipe foi por manter a alternativa original que existia um subcontrato que garantia a montagem do acelerador.
+O ganho de qualidade da alternativa 3 era suprimido pelo aumento de custo, porém aumentava o prazo deixando o caminho quase crítico.</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1584,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2274,11 +2307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2296,7 +2329,7 @@
     <col min="13" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25">
+    <row r="1" spans="1:13" ht="47.25">
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>132</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>133</v>
@@ -2328,13 +2361,13 @@
         <v>134</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="165">
+    <row r="2" spans="1:13" ht="165">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2369,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="150">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2407,10 +2440,10 @@
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" ht="90">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="36" customFormat="1" ht="90">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -2434,7 +2467,7 @@
         <v>167</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>210</v>
@@ -2442,7 +2475,7 @@
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" ht="150">
+    <row r="5" spans="1:13" ht="150">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2477,10 +2510,10 @@
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="105">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2517,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="90">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2557,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="90">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="36" customFormat="1" ht="90">
       <c r="A8" s="32">
         <v>2</v>
       </c>
@@ -2584,7 +2617,7 @@
         <v>173</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>214</v>
@@ -2592,7 +2625,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="105">
+    <row r="9" spans="1:13" s="36" customFormat="1" ht="105">
       <c r="A9" s="32">
         <v>2</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>173</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>215</v>
@@ -2624,7 +2657,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" ht="90">
+    <row r="10" spans="1:13" s="36" customFormat="1" ht="90">
       <c r="A10" s="32">
         <v>2</v>
       </c>
@@ -2648,7 +2681,7 @@
         <v>167</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>216</v>
@@ -2656,7 +2689,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" ht="135">
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="135">
       <c r="A11" s="32">
         <v>2</v>
       </c>
@@ -2680,19 +2713,19 @@
         <v>173</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K11" s="35">
         <v>2</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="97.5" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="97.5" customHeight="1">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2729,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="36" customFormat="1" ht="78" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="78" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2751,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>246</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>218</v>
@@ -2762,7 +2795,7 @@
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" s="36" customFormat="1" ht="120">
+    <row r="14" spans="1:13" s="36" customFormat="1" ht="120">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2785,7 +2818,7 @@
         <v>198</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>219</v>
@@ -2793,7 +2826,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="105">
+    <row r="15" spans="1:13" ht="105">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2824,12 +2857,15 @@
         <v>199</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="105">
+      <c r="M15" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="105">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -2860,16 +2896,16 @@
         <v>185</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K16" s="26">
         <v>1</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="60">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2900,12 +2936,12 @@
         <v>183</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="105">
+    <row r="18" spans="1:13" ht="105">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -2936,16 +2972,16 @@
         <v>181</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K18" s="26">
         <v>1</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="105">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="105">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -2976,12 +3012,15 @@
         <v>180</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="105">
+      <c r="M19" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="105">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -3012,12 +3051,12 @@
         <v>177</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="75">
+    <row r="21" spans="1:13" ht="75">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -3048,16 +3087,16 @@
         <v>176</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K21" s="26">
         <v>2</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="60">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -3088,12 +3127,15 @@
         <v>174</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="105">
+      <c r="M22" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="105">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -3124,12 +3166,15 @@
         <v>172</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="30">
+      <c r="M23" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="60">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -3144,14 +3189,21 @@
         <f>VLOOKUP(D24,Tasks!$A$1:$C$46,3,0)</f>
         <v>A loading station for the passengers and a building for the power supply must be built. The purchaser favors a local construction company called Woodbuilder Ltd.</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="75">
+      <c r="M24" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="75">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -3182,12 +3234,12 @@
         <v>170</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="120">
+    <row r="26" spans="1:13" ht="135" customHeight="1">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3209,7 +3261,7 @@
         <v>It is extremely important to properly document the software, as otherwise the client may reject the work. The documentation department bears this responsibility. Answer: The documentation can be performed by specialists in the documentation department.</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>167</v>
@@ -3218,12 +3270,15 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" ht="45">
+      <c r="M26" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="31" customFormat="1" ht="45">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -3245,7 +3300,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="105">
+    <row r="28" spans="1:13" ht="105">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -3275,11 +3330,16 @@
       <c r="I28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="90">
+      <c r="M28" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="105">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -3301,7 +3361,7 @@
         <v>The assembly of electrical components, modules, and systems is perceived to be problem-free. However, the in-house Electronics Dept. anticipates potential problems with the integration of electrical modules with software modules. Answer: Employ fewer personnel.</v>
       </c>
       <c r="G29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>167</v>
@@ -3309,11 +3369,16 @@
       <c r="I29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="105">
+      <c r="M29" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="105">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -3335,7 +3400,7 @@
         <v>Screwfix Ltd., a subcontractor, will complete the assembly of the accelerator. The accelerator equipment is pre-assembled by the subcontractor and the rest of the assembly occurs on site at the amusement park. Answer: Your own assembly department has idle capacity and offers its resources.</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>165</v>
@@ -3343,11 +3408,16 @@
       <c r="I30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="75">
+      <c r="M30" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="75">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -3369,7 +3439,7 @@
         <v>The software is installed in conjunction with the monitoring, control, and safety systems at the amusement park. The in-house IT department bears this responsibility. Answer: A single worker installs the software.</v>
       </c>
       <c r="G31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>163</v>
@@ -3377,11 +3447,16 @@
       <c r="I31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>251</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="45">
+      <c r="M31" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3396,14 +3471,21 @@
         <f>VLOOKUP(D32,Tasks!$A$1:$C$46,3,0)</f>
         <v>The 200 loudspeakers are mounted above the track on the steel supports and special fastening devices were developed to this end. Assemblesound Ltd. Has provided the best references for this work package.</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="45">
+      <c r="M32" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3418,14 +3500,21 @@
         <f>VLOOKUP(D33,Tasks!$A$1:$C$46,3,0)</f>
         <v>Internal cable lines must be connected to the power station and the transporter facility must be assembled and started. A subsidiary of a power plant, Electricity Ltd. has won the contract for this task.</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" ht="30">
+      <c r="M33" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3447,7 +3536,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="60">
+    <row r="35" spans="1:13" ht="60">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3469,7 +3558,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:13" ht="45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3491,7 +3580,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="30">
+    <row r="37" spans="1:13" ht="30">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3513,7 +3602,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="45">
+    <row r="38" spans="1:13" ht="45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3535,7 +3624,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="30">
+    <row r="39" spans="1:13" ht="30">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3557,7 +3646,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="30">
+    <row r="40" spans="1:13" ht="30">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3579,7 +3668,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:13" ht="30">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3601,7 +3690,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="60">
+    <row r="42" spans="1:13" ht="60">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3623,7 +3712,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="45">
+    <row r="43" spans="1:13" ht="45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3645,7 +3734,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:13" ht="45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3667,7 +3756,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="60">
+    <row r="45" spans="1:13" ht="60">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3689,7 +3778,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="45">
+    <row r="46" spans="1:13" ht="45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3711,7 +3800,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="45">
+    <row r="47" spans="1:13" ht="45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
